--- a/Code/Results/Cases/Case_4_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012968796584819</v>
+        <v>1.036019130622163</v>
       </c>
       <c r="D2">
-        <v>1.032513352087468</v>
+        <v>1.044334344382848</v>
       </c>
       <c r="E2">
-        <v>1.021059374607631</v>
+        <v>1.039666840014316</v>
       </c>
       <c r="F2">
-        <v>1.037140866394373</v>
+        <v>1.053352522305984</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05315442468355</v>
+        <v>1.042660216335966</v>
       </c>
       <c r="J2">
-        <v>1.034768413343496</v>
+        <v>1.041129733014365</v>
       </c>
       <c r="K2">
-        <v>1.043537571656723</v>
+        <v>1.04710568636298</v>
       </c>
       <c r="L2">
-        <v>1.032232912699056</v>
+        <v>1.042451377914911</v>
       </c>
       <c r="M2">
-        <v>1.048105928297679</v>
+        <v>1.056098727274549</v>
       </c>
       <c r="N2">
-        <v>1.01539730198635</v>
+        <v>1.017656945390353</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016871240361986</v>
+        <v>1.036847179549128</v>
       </c>
       <c r="D3">
-        <v>1.035454645692737</v>
+        <v>1.044980168692938</v>
       </c>
       <c r="E3">
-        <v>1.024474293409419</v>
+        <v>1.040442942468631</v>
       </c>
       <c r="F3">
-        <v>1.040611496908613</v>
+        <v>1.054135846360394</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054468031397221</v>
+        <v>1.042883485650861</v>
       </c>
       <c r="J3">
-        <v>1.036912310990967</v>
+        <v>1.041602184318099</v>
       </c>
       <c r="K3">
-        <v>1.045653118075873</v>
+        <v>1.04756315935154</v>
       </c>
       <c r="L3">
-        <v>1.034803312579319</v>
+        <v>1.043037835863186</v>
       </c>
       <c r="M3">
-        <v>1.050749834170605</v>
+        <v>1.056695155072948</v>
       </c>
       <c r="N3">
-        <v>1.01611770850679</v>
+        <v>1.017814790389635</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019350198615275</v>
+        <v>1.037383593322354</v>
       </c>
       <c r="D4">
-        <v>1.037325665819887</v>
+        <v>1.045398559577856</v>
       </c>
       <c r="E4">
-        <v>1.026648696792797</v>
+        <v>1.040946073719258</v>
       </c>
       <c r="F4">
-        <v>1.042820655629286</v>
+        <v>1.054643552688489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055293098481678</v>
+        <v>1.043026958912061</v>
       </c>
       <c r="J4">
-        <v>1.03827154998432</v>
+        <v>1.04190783271057</v>
       </c>
       <c r="K4">
-        <v>1.046993544471526</v>
+        <v>1.047858986349689</v>
       </c>
       <c r="L4">
-        <v>1.036435792043569</v>
+        <v>1.043417594318963</v>
       </c>
       <c r="M4">
-        <v>1.052428346485945</v>
+        <v>1.057081266371403</v>
       </c>
       <c r="N4">
-        <v>1.016574349870611</v>
+        <v>1.017916872298475</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020381633662585</v>
+        <v>1.037609246220832</v>
       </c>
       <c r="D5">
-        <v>1.03810474063236</v>
+        <v>1.04557456886101</v>
       </c>
       <c r="E5">
-        <v>1.027554618093051</v>
+        <v>1.041157813510983</v>
       </c>
       <c r="F5">
-        <v>1.043740879438458</v>
+        <v>1.054857192345691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055634104837674</v>
+        <v>1.043087035572354</v>
       </c>
       <c r="J5">
-        <v>1.038836438273651</v>
+        <v>1.042036311853655</v>
       </c>
       <c r="K5">
-        <v>1.047550406500697</v>
+        <v>1.047983305543082</v>
       </c>
       <c r="L5">
-        <v>1.0371149222783</v>
+        <v>1.043577310522148</v>
       </c>
       <c r="M5">
-        <v>1.053126464992776</v>
+        <v>1.057243629674488</v>
       </c>
       <c r="N5">
-        <v>1.016764100075637</v>
+        <v>1.017959774051485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02055419712443</v>
+        <v>1.037647142763406</v>
       </c>
       <c r="D6">
-        <v>1.038235116608006</v>
+        <v>1.045604128447105</v>
       </c>
       <c r="E6">
-        <v>1.027706252551192</v>
+        <v>1.041193378600164</v>
       </c>
       <c r="F6">
-        <v>1.043894897284935</v>
+        <v>1.054893075050194</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055691021402931</v>
+        <v>1.043097108639395</v>
       </c>
       <c r="J6">
-        <v>1.038930907021302</v>
+        <v>1.042057883124713</v>
       </c>
       <c r="K6">
-        <v>1.047643520560892</v>
+        <v>1.048004176518841</v>
       </c>
       <c r="L6">
-        <v>1.037228536654464</v>
+        <v>1.043604131387025</v>
       </c>
       <c r="M6">
-        <v>1.053243246312146</v>
+        <v>1.057270893610258</v>
       </c>
       <c r="N6">
-        <v>1.016795831232356</v>
+        <v>1.017966976640436</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019364022381917</v>
+        <v>1.037386607941534</v>
       </c>
       <c r="D7">
-        <v>1.037336105067057</v>
+        <v>1.045400910962073</v>
       </c>
       <c r="E7">
-        <v>1.026660833648138</v>
+        <v>1.040948902121215</v>
       </c>
       <c r="F7">
-        <v>1.042832984806614</v>
+        <v>1.054646406568981</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055297677869607</v>
+        <v>1.043027762601445</v>
       </c>
       <c r="J7">
-        <v>1.038279123511199</v>
+        <v>1.041909549517434</v>
       </c>
       <c r="K7">
-        <v>1.04700101121968</v>
+        <v>1.047860647693116</v>
       </c>
       <c r="L7">
-        <v>1.036444894511558</v>
+        <v>1.043419728198238</v>
       </c>
       <c r="M7">
-        <v>1.052437704102897</v>
+        <v>1.057083435714351</v>
       </c>
       <c r="N7">
-        <v>1.016576893981199</v>
+        <v>1.017917445607358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014297416249751</v>
+        <v>1.03629884617225</v>
       </c>
       <c r="D8">
-        <v>1.033514168123192</v>
+        <v>1.044552499255253</v>
       </c>
       <c r="E8">
-        <v>1.022220919159458</v>
+        <v>1.03992893148888</v>
       </c>
       <c r="F8">
-        <v>1.038321507555766</v>
+        <v>1.053617074547304</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053603595880048</v>
+        <v>1.042735877161588</v>
       </c>
       <c r="J8">
-        <v>1.035498856477415</v>
+        <v>1.041289411637084</v>
       </c>
       <c r="K8">
-        <v>1.04425852673458</v>
+        <v>1.047260329760981</v>
       </c>
       <c r="L8">
-        <v>1.033108076779571</v>
+        <v>1.042649515043749</v>
       </c>
       <c r="M8">
-        <v>1.049006252454739</v>
+        <v>1.05630025405933</v>
       </c>
       <c r="N8">
-        <v>1.015642769597806</v>
+        <v>1.017710300821635</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00499978825065</v>
+        <v>1.03438682229529</v>
       </c>
       <c r="D9">
-        <v>1.026523218903764</v>
+        <v>1.043061393350492</v>
       </c>
       <c r="E9">
-        <v>1.014115399853911</v>
+        <v>1.038138903449267</v>
       </c>
       <c r="F9">
-        <v>1.030079926780547</v>
+        <v>1.051809805552198</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050422085547364</v>
+        <v>1.042213939518331</v>
       </c>
       <c r="J9">
-        <v>1.030377218136385</v>
+        <v>1.040196252276669</v>
       </c>
       <c r="K9">
-        <v>1.039200148333182</v>
+        <v>1.046201106723335</v>
       </c>
       <c r="L9">
-        <v>1.026983541738911</v>
+        <v>1.041294519599645</v>
       </c>
       <c r="M9">
-        <v>1.042703126636</v>
+        <v>1.054921657791404</v>
       </c>
       <c r="N9">
-        <v>1.013921303572495</v>
+        <v>1.017344889564981</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9985294312953076</v>
+        <v>1.033115433498525</v>
       </c>
       <c r="D10">
-        <v>1.021676167640971</v>
+        <v>1.042070054615201</v>
       </c>
       <c r="E10">
-        <v>1.008505149581252</v>
+        <v>1.036950565292859</v>
       </c>
       <c r="F10">
-        <v>1.024372207175886</v>
+        <v>1.05060947780251</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048161078063617</v>
+        <v>1.041860922321768</v>
       </c>
       <c r="J10">
-        <v>1.026801516540116</v>
+        <v>1.039467288044917</v>
       </c>
       <c r="K10">
-        <v>1.035664778969688</v>
+        <v>1.045494104871556</v>
       </c>
       <c r="L10">
-        <v>1.022722520360318</v>
+        <v>1.040392771043863</v>
       </c>
       <c r="M10">
-        <v>1.038314928880035</v>
+        <v>1.054003677842676</v>
       </c>
       <c r="N10">
-        <v>1.012719144433782</v>
+        <v>1.017101043889363</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9956576047329685</v>
+        <v>1.03256571023262</v>
       </c>
       <c r="D11">
-        <v>1.019529761027091</v>
+        <v>1.041641464598297</v>
       </c>
       <c r="E11">
-        <v>1.006022792290735</v>
+        <v>1.036437214666975</v>
       </c>
       <c r="F11">
-        <v>1.021846027446857</v>
+        <v>1.050090819112125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047146919619631</v>
+        <v>1.041706872596261</v>
       </c>
       <c r="J11">
-        <v>1.025212154909855</v>
+        <v>1.039151609070318</v>
       </c>
       <c r="K11">
-        <v>1.034092539170054</v>
+        <v>1.045187779530772</v>
       </c>
       <c r="L11">
-        <v>1.020832014400531</v>
+        <v>1.040002698151171</v>
       </c>
       <c r="M11">
-        <v>1.036367393256838</v>
+        <v>1.053606459816673</v>
       </c>
       <c r="N11">
-        <v>1.012184757964695</v>
+        <v>1.016995405406749</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9945798375442108</v>
+        <v>1.032361639871455</v>
       </c>
       <c r="D12">
-        <v>1.018725033691045</v>
+        <v>1.041482369105863</v>
       </c>
       <c r="E12">
-        <v>1.005092391295176</v>
+        <v>1.036246716742797</v>
       </c>
       <c r="F12">
-        <v>1.020899104789683</v>
+        <v>1.049898332124748</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046764764733138</v>
+        <v>1.041649473571261</v>
       </c>
       <c r="J12">
-        <v>1.024615373086613</v>
+        <v>1.039034348220595</v>
       </c>
       <c r="K12">
-        <v>1.033502074384838</v>
+        <v>1.045073969619665</v>
       </c>
       <c r="L12">
-        <v>1.020122675140961</v>
+        <v>1.039857867865653</v>
       </c>
       <c r="M12">
-        <v>1.035636572848373</v>
+        <v>1.053458958057676</v>
       </c>
       <c r="N12">
-        <v>1.01198410066643</v>
+        <v>1.016956159276743</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9948115304777538</v>
+        <v>1.032405408139013</v>
       </c>
       <c r="D13">
-        <v>1.018897992935104</v>
+        <v>1.041516490987408</v>
       </c>
       <c r="E13">
-        <v>1.005292349143991</v>
+        <v>1.03628757086615</v>
       </c>
       <c r="F13">
-        <v>1.021102617650344</v>
+        <v>1.049939613695385</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046846987838574</v>
+        <v>1.041661793902949</v>
       </c>
       <c r="J13">
-        <v>1.024743679661704</v>
+        <v>1.039059501214265</v>
       </c>
       <c r="K13">
-        <v>1.033629027723506</v>
+        <v>1.045098383434129</v>
       </c>
       <c r="L13">
-        <v>1.020275157941984</v>
+        <v>1.039888931706773</v>
       </c>
       <c r="M13">
-        <v>1.035793676954589</v>
+        <v>1.0534905957271</v>
       </c>
       <c r="N13">
-        <v>1.012027241568174</v>
+        <v>1.016964578027337</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9955687444794907</v>
+        <v>1.032548839227985</v>
       </c>
       <c r="D14">
-        <v>1.01946339594425</v>
+        <v>1.041628311625469</v>
       </c>
       <c r="E14">
-        <v>1.005946057449635</v>
+        <v>1.036421464297638</v>
       </c>
       <c r="F14">
-        <v>1.021767931904253</v>
+        <v>1.050074904680878</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047115442822723</v>
+        <v>1.041702131603292</v>
       </c>
       <c r="J14">
-        <v>1.025162957265403</v>
+        <v>1.039141916318389</v>
       </c>
       <c r="K14">
-        <v>1.03404386451421</v>
+        <v>1.045178372511908</v>
       </c>
       <c r="L14">
-        <v>1.020773527213171</v>
+        <v>1.039990725198577</v>
       </c>
       <c r="M14">
-        <v>1.036307136523884</v>
+        <v>1.053594266394703</v>
       </c>
       <c r="N14">
-        <v>1.01216821617564</v>
+        <v>1.016992161455463</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9960338100064632</v>
+        <v>1.03263722798411</v>
       </c>
       <c r="D15">
-        <v>1.019810761955967</v>
+        <v>1.041697221571708</v>
       </c>
       <c r="E15">
-        <v>1.006347711828631</v>
+        <v>1.036503984813614</v>
       </c>
       <c r="F15">
-        <v>1.02217670472238</v>
+        <v>1.050158283971464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047280119081138</v>
+        <v>1.04172696141691</v>
       </c>
       <c r="J15">
-        <v>1.025420429209249</v>
+        <v>1.039192694542372</v>
       </c>
       <c r="K15">
-        <v>1.034298594928326</v>
+        <v>1.045227652879534</v>
       </c>
       <c r="L15">
-        <v>1.021079636329259</v>
+        <v>1.040053451545472</v>
       </c>
       <c r="M15">
-        <v>1.036622503717155</v>
+        <v>1.05365814702188</v>
       </c>
       <c r="N15">
-        <v>1.012254786199644</v>
+        <v>1.017009155563506</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9987185049292394</v>
+        <v>1.033151933744906</v>
       </c>
       <c r="D16">
-        <v>1.021817589042858</v>
+        <v>1.042098512915733</v>
       </c>
       <c r="E16">
-        <v>1.00866874614201</v>
+        <v>1.036984660290786</v>
       </c>
       <c r="F16">
-        <v>1.024538677916038</v>
+        <v>1.050643922632529</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048227629720888</v>
+        <v>1.041871121073469</v>
       </c>
       <c r="J16">
-        <v>1.026906110863099</v>
+        <v>1.039488238040344</v>
       </c>
       <c r="K16">
-        <v>1.035768230485956</v>
+        <v>1.045514430810242</v>
       </c>
       <c r="L16">
-        <v>1.022847004773131</v>
+        <v>1.040418667248753</v>
       </c>
       <c r="M16">
-        <v>1.038443156573444</v>
+        <v>1.054030045793537</v>
       </c>
       <c r="N16">
-        <v>1.012754311299289</v>
+        <v>1.017108053718728</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000383420713091</v>
+        <v>1.033475009490369</v>
       </c>
       <c r="D17">
-        <v>1.023063464528704</v>
+        <v>1.042350412029406</v>
       </c>
       <c r="E17">
-        <v>1.010110204748751</v>
+        <v>1.037286499993909</v>
       </c>
       <c r="F17">
-        <v>1.026005382562253</v>
+        <v>1.050948844485201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048812453971418</v>
+        <v>1.04196123035089</v>
       </c>
       <c r="J17">
-        <v>1.027826872598153</v>
+        <v>1.039673616832081</v>
       </c>
       <c r="K17">
-        <v>1.03667884120332</v>
+        <v>1.045694269405828</v>
       </c>
       <c r="L17">
-        <v>1.023943257605931</v>
+        <v>1.040647862956755</v>
       </c>
       <c r="M17">
-        <v>1.039572305986389</v>
+        <v>1.054263402404925</v>
       </c>
       <c r="N17">
-        <v>1.013063887095638</v>
+        <v>1.017170076412003</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001347808309132</v>
+        <v>1.033663530842288</v>
       </c>
       <c r="D18">
-        <v>1.023785591234533</v>
+        <v>1.042497404676129</v>
       </c>
       <c r="E18">
-        <v>1.010945887455574</v>
+        <v>1.037462674376761</v>
       </c>
       <c r="F18">
-        <v>1.02685563484799</v>
+        <v>1.051126805387989</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049150195050046</v>
+        <v>1.042013674602818</v>
       </c>
       <c r="J18">
-        <v>1.028359993592168</v>
+        <v>1.039781741908499</v>
       </c>
       <c r="K18">
-        <v>1.037206007637931</v>
+        <v>1.045799147902898</v>
       </c>
       <c r="L18">
-        <v>1.02457831811194</v>
+        <v>1.040781586479643</v>
       </c>
       <c r="M18">
-        <v>1.040226365470127</v>
+        <v>1.054399541632969</v>
       </c>
       <c r="N18">
-        <v>1.013243127531601</v>
+        <v>1.017206248180061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001675513042511</v>
+        <v>1.033727824716231</v>
       </c>
       <c r="D19">
-        <v>1.024031051370138</v>
+        <v>1.042547536196081</v>
       </c>
       <c r="E19">
-        <v>1.011229980178503</v>
+        <v>1.037522764971978</v>
       </c>
       <c r="F19">
-        <v>1.027144668992316</v>
+        <v>1.051187503230127</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049264788343128</v>
+        <v>1.042031537212182</v>
       </c>
       <c r="J19">
-        <v>1.028541112603859</v>
+        <v>1.039818609177377</v>
       </c>
       <c r="K19">
-        <v>1.037385090339667</v>
+        <v>1.045834905613235</v>
       </c>
       <c r="L19">
-        <v>1.024794125509469</v>
+        <v>1.040827189066666</v>
       </c>
       <c r="M19">
-        <v>1.04044861905741</v>
+        <v>1.054445965996798</v>
       </c>
       <c r="N19">
-        <v>1.013304020743769</v>
+        <v>1.01721858095241</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000205490659381</v>
+        <v>1.033440338571229</v>
       </c>
       <c r="D20">
-        <v>1.022930268868748</v>
+        <v>1.04232337898932</v>
       </c>
       <c r="E20">
-        <v>1.00995607954944</v>
+        <v>1.037254103397646</v>
       </c>
       <c r="F20">
-        <v>1.025848564846462</v>
+        <v>1.050916118366013</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048750058388631</v>
+        <v>1.041951574363608</v>
       </c>
       <c r="J20">
-        <v>1.027728493283872</v>
+        <v>1.039653727767642</v>
       </c>
       <c r="K20">
-        <v>1.036581554416452</v>
+        <v>1.045674976311071</v>
       </c>
       <c r="L20">
-        <v>1.023826093624866</v>
+        <v>1.040623268531943</v>
       </c>
       <c r="M20">
-        <v>1.039451632089434</v>
+        <v>1.054238362720516</v>
       </c>
       <c r="N20">
-        <v>1.013030810680342</v>
+        <v>1.01716342247978</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9953460729031088</v>
+        <v>1.032506598984268</v>
       </c>
       <c r="D21">
-        <v>1.019297107216074</v>
+        <v>1.041595380406331</v>
       </c>
       <c r="E21">
-        <v>1.005753790014369</v>
+        <v>1.036382030942346</v>
       </c>
       <c r="F21">
-        <v>1.021572253551333</v>
+        <v>1.050035060260693</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047036541450032</v>
+        <v>1.041690258065641</v>
       </c>
       <c r="J21">
-        <v>1.025039669853724</v>
+        <v>1.039117647214078</v>
       </c>
       <c r="K21">
-        <v>1.03392188591934</v>
+        <v>1.0451548184579</v>
       </c>
       <c r="L21">
-        <v>1.020626968893005</v>
+        <v>1.03996074787949</v>
       </c>
       <c r="M21">
-        <v>1.036156142732605</v>
+        <v>1.053563736775113</v>
       </c>
       <c r="N21">
-        <v>1.012126763046451</v>
+        <v>1.016984039020935</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9922265988765662</v>
+        <v>1.03192022269129</v>
       </c>
       <c r="D22">
-        <v>1.016969490553868</v>
+        <v>1.041138249403111</v>
       </c>
       <c r="E22">
-        <v>1.00306317626162</v>
+        <v>1.035834786164171</v>
       </c>
       <c r="F22">
-        <v>1.018833686930751</v>
+        <v>1.049482065153228</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045927552325011</v>
+        <v>1.041524928129584</v>
       </c>
       <c r="J22">
-        <v>1.023311806877383</v>
+        <v>1.038780571766743</v>
       </c>
       <c r="K22">
-        <v>1.032212111094847</v>
+        <v>1.044827618784125</v>
       </c>
       <c r="L22">
-        <v>1.018574194292667</v>
+        <v>1.039544543646379</v>
       </c>
       <c r="M22">
-        <v>1.034041055387763</v>
+        <v>1.053139820536489</v>
       </c>
       <c r="N22">
-        <v>1.011545797180733</v>
+        <v>1.016871211553483</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9938865509698744</v>
+        <v>1.032231004677034</v>
       </c>
       <c r="D23">
-        <v>1.018207615176997</v>
+        <v>1.041380526603251</v>
       </c>
       <c r="E23">
-        <v>1.004494244088553</v>
+        <v>1.036124789688914</v>
       </c>
       <c r="F23">
-        <v>1.020290309674242</v>
+        <v>1.049775126551082</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046518507605015</v>
+        <v>1.04161267001247</v>
       </c>
       <c r="J23">
-        <v>1.024231403204331</v>
+        <v>1.03895926333746</v>
       </c>
       <c r="K23">
-        <v>1.033122138499287</v>
+        <v>1.045001087842848</v>
       </c>
       <c r="L23">
-        <v>1.019666431138671</v>
+        <v>1.039765147811104</v>
       </c>
       <c r="M23">
-        <v>1.03516648989901</v>
+        <v>1.053364522514673</v>
       </c>
       <c r="N23">
-        <v>1.011854997100197</v>
+        <v>1.016931027349</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000285910351649</v>
+        <v>1.033456004630299</v>
       </c>
       <c r="D24">
-        <v>1.022990468359478</v>
+        <v>1.042335593858519</v>
       </c>
       <c r="E24">
-        <v>1.010025737813857</v>
+        <v>1.037268741665623</v>
       </c>
       <c r="F24">
-        <v>1.025919440225244</v>
+        <v>1.050930905565974</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048778262690162</v>
+        <v>1.041955937843946</v>
       </c>
       <c r="J24">
-        <v>1.027772958830527</v>
+        <v>1.039662714789908</v>
       </c>
       <c r="K24">
-        <v>1.036625526401607</v>
+        <v>1.045683694086882</v>
       </c>
       <c r="L24">
-        <v>1.023879048453648</v>
+        <v>1.04063438157805</v>
       </c>
       <c r="M24">
-        <v>1.039506173482121</v>
+        <v>1.054249676995133</v>
       </c>
       <c r="N24">
-        <v>1.013045760592517</v>
+        <v>1.017166429120906</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007449581833907</v>
+        <v>1.034880553023315</v>
       </c>
       <c r="D25">
-        <v>1.028362320725021</v>
+        <v>1.043446406290431</v>
       </c>
       <c r="E25">
-        <v>1.016245972257403</v>
+        <v>1.038600793081284</v>
       </c>
       <c r="F25">
-        <v>1.032246861458655</v>
+        <v>1.052276240126037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051268644148908</v>
+        <v>1.042349768207065</v>
       </c>
       <c r="J25">
-        <v>1.031728812686233</v>
+        <v>1.040478899440497</v>
       </c>
       <c r="K25">
-        <v>1.040535743271559</v>
+        <v>1.046475097411886</v>
       </c>
       <c r="L25">
-        <v>1.028597218544087</v>
+        <v>1.041644546205295</v>
       </c>
       <c r="M25">
-        <v>1.044364392035714</v>
+        <v>1.05527787389293</v>
       </c>
       <c r="N25">
-        <v>1.014375660505112</v>
+        <v>1.017439401151539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036019130622163</v>
+        <v>1.012968796584818</v>
       </c>
       <c r="D2">
-        <v>1.044334344382848</v>
+        <v>1.032513352087467</v>
       </c>
       <c r="E2">
-        <v>1.039666840014316</v>
+        <v>1.02105937460763</v>
       </c>
       <c r="F2">
-        <v>1.053352522305984</v>
+        <v>1.037140866394372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042660216335966</v>
+        <v>1.05315442468355</v>
       </c>
       <c r="J2">
-        <v>1.041129733014365</v>
+        <v>1.034768413343496</v>
       </c>
       <c r="K2">
-        <v>1.04710568636298</v>
+        <v>1.043537571656722</v>
       </c>
       <c r="L2">
-        <v>1.042451377914911</v>
+        <v>1.032232912699055</v>
       </c>
       <c r="M2">
-        <v>1.056098727274549</v>
+        <v>1.048105928297678</v>
       </c>
       <c r="N2">
-        <v>1.017656945390353</v>
+        <v>1.015397301986349</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036847179549128</v>
+        <v>1.016871240361985</v>
       </c>
       <c r="D3">
-        <v>1.044980168692938</v>
+        <v>1.035454645692736</v>
       </c>
       <c r="E3">
-        <v>1.040442942468631</v>
+        <v>1.024474293409418</v>
       </c>
       <c r="F3">
-        <v>1.054135846360394</v>
+        <v>1.040611496908612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042883485650861</v>
+        <v>1.054468031397221</v>
       </c>
       <c r="J3">
-        <v>1.041602184318099</v>
+        <v>1.036912310990966</v>
       </c>
       <c r="K3">
-        <v>1.04756315935154</v>
+        <v>1.045653118075873</v>
       </c>
       <c r="L3">
-        <v>1.043037835863186</v>
+        <v>1.034803312579318</v>
       </c>
       <c r="M3">
-        <v>1.056695155072948</v>
+        <v>1.050749834170604</v>
       </c>
       <c r="N3">
-        <v>1.017814790389635</v>
+        <v>1.016117708506789</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037383593322354</v>
+        <v>1.019350198615276</v>
       </c>
       <c r="D4">
-        <v>1.045398559577856</v>
+        <v>1.037325665819888</v>
       </c>
       <c r="E4">
-        <v>1.040946073719258</v>
+        <v>1.026648696792799</v>
       </c>
       <c r="F4">
-        <v>1.054643552688489</v>
+        <v>1.042820655629287</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043026958912061</v>
+        <v>1.055293098481679</v>
       </c>
       <c r="J4">
-        <v>1.04190783271057</v>
+        <v>1.03827154998432</v>
       </c>
       <c r="K4">
-        <v>1.047858986349689</v>
+        <v>1.046993544471527</v>
       </c>
       <c r="L4">
-        <v>1.043417594318963</v>
+        <v>1.036435792043569</v>
       </c>
       <c r="M4">
-        <v>1.057081266371403</v>
+        <v>1.052428346485947</v>
       </c>
       <c r="N4">
-        <v>1.017916872298475</v>
+        <v>1.016574349870612</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037609246220832</v>
+        <v>1.020381633662586</v>
       </c>
       <c r="D5">
-        <v>1.04557456886101</v>
+        <v>1.03810474063236</v>
       </c>
       <c r="E5">
-        <v>1.041157813510983</v>
+        <v>1.027554618093052</v>
       </c>
       <c r="F5">
-        <v>1.054857192345691</v>
+        <v>1.043740879438459</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043087035572354</v>
+        <v>1.055634104837675</v>
       </c>
       <c r="J5">
-        <v>1.042036311853655</v>
+        <v>1.038836438273651</v>
       </c>
       <c r="K5">
-        <v>1.047983305543082</v>
+        <v>1.047550406500698</v>
       </c>
       <c r="L5">
-        <v>1.043577310522148</v>
+        <v>1.037114922278301</v>
       </c>
       <c r="M5">
-        <v>1.057243629674488</v>
+        <v>1.053126464992777</v>
       </c>
       <c r="N5">
-        <v>1.017959774051485</v>
+        <v>1.016764100075637</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037647142763406</v>
+        <v>1.020554197124429</v>
       </c>
       <c r="D6">
-        <v>1.045604128447105</v>
+        <v>1.038235116608005</v>
       </c>
       <c r="E6">
-        <v>1.041193378600164</v>
+        <v>1.02770625255119</v>
       </c>
       <c r="F6">
-        <v>1.054893075050194</v>
+        <v>1.043894897284934</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043097108639395</v>
+        <v>1.05569102140293</v>
       </c>
       <c r="J6">
-        <v>1.042057883124713</v>
+        <v>1.0389309070213</v>
       </c>
       <c r="K6">
-        <v>1.048004176518841</v>
+        <v>1.047643520560891</v>
       </c>
       <c r="L6">
-        <v>1.043604131387025</v>
+        <v>1.037228536654463</v>
       </c>
       <c r="M6">
-        <v>1.057270893610258</v>
+        <v>1.053243246312145</v>
       </c>
       <c r="N6">
-        <v>1.017966976640436</v>
+        <v>1.016795831232356</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037386607941534</v>
+        <v>1.019364022381918</v>
       </c>
       <c r="D7">
-        <v>1.045400910962073</v>
+        <v>1.037336105067057</v>
       </c>
       <c r="E7">
-        <v>1.040948902121215</v>
+        <v>1.026660833648139</v>
       </c>
       <c r="F7">
-        <v>1.054646406568981</v>
+        <v>1.042832984806614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043027762601445</v>
+        <v>1.055297677869607</v>
       </c>
       <c r="J7">
-        <v>1.041909549517434</v>
+        <v>1.038279123511199</v>
       </c>
       <c r="K7">
-        <v>1.047860647693116</v>
+        <v>1.04700101121968</v>
       </c>
       <c r="L7">
-        <v>1.043419728198238</v>
+        <v>1.036444894511558</v>
       </c>
       <c r="M7">
-        <v>1.057083435714351</v>
+        <v>1.052437704102897</v>
       </c>
       <c r="N7">
-        <v>1.017917445607358</v>
+        <v>1.016576893981199</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03629884617225</v>
+        <v>1.014297416249752</v>
       </c>
       <c r="D8">
-        <v>1.044552499255253</v>
+        <v>1.033514168123192</v>
       </c>
       <c r="E8">
-        <v>1.03992893148888</v>
+        <v>1.022220919159459</v>
       </c>
       <c r="F8">
-        <v>1.053617074547304</v>
+        <v>1.038321507555766</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042735877161588</v>
+        <v>1.053603595880048</v>
       </c>
       <c r="J8">
-        <v>1.041289411637084</v>
+        <v>1.035498856477415</v>
       </c>
       <c r="K8">
-        <v>1.047260329760981</v>
+        <v>1.044258526734581</v>
       </c>
       <c r="L8">
-        <v>1.042649515043749</v>
+        <v>1.033108076779572</v>
       </c>
       <c r="M8">
-        <v>1.05630025405933</v>
+        <v>1.049006252454739</v>
       </c>
       <c r="N8">
-        <v>1.017710300821635</v>
+        <v>1.015642769597806</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03438682229529</v>
+        <v>1.004999788250649</v>
       </c>
       <c r="D9">
-        <v>1.043061393350492</v>
+        <v>1.026523218903763</v>
       </c>
       <c r="E9">
-        <v>1.038138903449267</v>
+        <v>1.014115399853911</v>
       </c>
       <c r="F9">
-        <v>1.051809805552198</v>
+        <v>1.030079926780546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042213939518331</v>
+        <v>1.050422085547364</v>
       </c>
       <c r="J9">
-        <v>1.040196252276669</v>
+        <v>1.030377218136385</v>
       </c>
       <c r="K9">
-        <v>1.046201106723335</v>
+        <v>1.039200148333181</v>
       </c>
       <c r="L9">
-        <v>1.041294519599645</v>
+        <v>1.02698354173891</v>
       </c>
       <c r="M9">
-        <v>1.054921657791404</v>
+        <v>1.042703126636</v>
       </c>
       <c r="N9">
-        <v>1.017344889564981</v>
+        <v>1.013921303572495</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033115433498525</v>
+        <v>0.9985294312953076</v>
       </c>
       <c r="D10">
-        <v>1.042070054615201</v>
+        <v>1.021676167640971</v>
       </c>
       <c r="E10">
-        <v>1.036950565292859</v>
+        <v>1.008505149581252</v>
       </c>
       <c r="F10">
-        <v>1.05060947780251</v>
+        <v>1.024372207175886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041860922321768</v>
+        <v>1.048161078063617</v>
       </c>
       <c r="J10">
-        <v>1.039467288044917</v>
+        <v>1.026801516540116</v>
       </c>
       <c r="K10">
-        <v>1.045494104871556</v>
+        <v>1.035664778969688</v>
       </c>
       <c r="L10">
-        <v>1.040392771043863</v>
+        <v>1.022722520360318</v>
       </c>
       <c r="M10">
-        <v>1.054003677842676</v>
+        <v>1.038314928880035</v>
       </c>
       <c r="N10">
-        <v>1.017101043889363</v>
+        <v>1.012719144433782</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03256571023262</v>
+        <v>0.9956576047329686</v>
       </c>
       <c r="D11">
-        <v>1.041641464598297</v>
+        <v>1.019529761027091</v>
       </c>
       <c r="E11">
-        <v>1.036437214666975</v>
+        <v>1.006022792290735</v>
       </c>
       <c r="F11">
-        <v>1.050090819112125</v>
+        <v>1.021846027446857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041706872596261</v>
+        <v>1.047146919619631</v>
       </c>
       <c r="J11">
-        <v>1.039151609070318</v>
+        <v>1.025212154909855</v>
       </c>
       <c r="K11">
-        <v>1.045187779530772</v>
+        <v>1.034092539170054</v>
       </c>
       <c r="L11">
-        <v>1.040002698151171</v>
+        <v>1.020832014400531</v>
       </c>
       <c r="M11">
-        <v>1.053606459816673</v>
+        <v>1.036367393256839</v>
       </c>
       <c r="N11">
-        <v>1.016995405406749</v>
+        <v>1.012184757964695</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032361639871455</v>
+        <v>0.9945798375442103</v>
       </c>
       <c r="D12">
-        <v>1.041482369105863</v>
+        <v>1.018725033691045</v>
       </c>
       <c r="E12">
-        <v>1.036246716742797</v>
+        <v>1.005092391295175</v>
       </c>
       <c r="F12">
-        <v>1.049898332124748</v>
+        <v>1.020899104789683</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041649473571261</v>
+        <v>1.046764764733138</v>
       </c>
       <c r="J12">
-        <v>1.039034348220595</v>
+        <v>1.024615373086612</v>
       </c>
       <c r="K12">
-        <v>1.045073969619665</v>
+        <v>1.033502074384837</v>
       </c>
       <c r="L12">
-        <v>1.039857867865653</v>
+        <v>1.020122675140961</v>
       </c>
       <c r="M12">
-        <v>1.053458958057676</v>
+        <v>1.035636572848372</v>
       </c>
       <c r="N12">
-        <v>1.016956159276743</v>
+        <v>1.011984100666429</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032405408139013</v>
+        <v>0.9948115304777537</v>
       </c>
       <c r="D13">
-        <v>1.041516490987408</v>
+        <v>1.018897992935104</v>
       </c>
       <c r="E13">
-        <v>1.03628757086615</v>
+        <v>1.005292349143991</v>
       </c>
       <c r="F13">
-        <v>1.049939613695385</v>
+        <v>1.021102617650344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041661793902949</v>
+        <v>1.046846987838573</v>
       </c>
       <c r="J13">
-        <v>1.039059501214265</v>
+        <v>1.024743679661704</v>
       </c>
       <c r="K13">
-        <v>1.045098383434129</v>
+        <v>1.033629027723507</v>
       </c>
       <c r="L13">
-        <v>1.039888931706773</v>
+        <v>1.020275157941984</v>
       </c>
       <c r="M13">
-        <v>1.0534905957271</v>
+        <v>1.035793676954588</v>
       </c>
       <c r="N13">
-        <v>1.016964578027337</v>
+        <v>1.012027241568174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032548839227985</v>
+        <v>0.9955687444794911</v>
       </c>
       <c r="D14">
-        <v>1.041628311625469</v>
+        <v>1.01946339594425</v>
       </c>
       <c r="E14">
-        <v>1.036421464297638</v>
+        <v>1.005946057449635</v>
       </c>
       <c r="F14">
-        <v>1.050074904680878</v>
+        <v>1.021767931904253</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041702131603292</v>
+        <v>1.047115442822724</v>
       </c>
       <c r="J14">
-        <v>1.039141916318389</v>
+        <v>1.025162957265403</v>
       </c>
       <c r="K14">
-        <v>1.045178372511908</v>
+        <v>1.034043864514211</v>
       </c>
       <c r="L14">
-        <v>1.039990725198577</v>
+        <v>1.020773527213171</v>
       </c>
       <c r="M14">
-        <v>1.053594266394703</v>
+        <v>1.036307136523884</v>
       </c>
       <c r="N14">
-        <v>1.016992161455463</v>
+        <v>1.01216821617564</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03263722798411</v>
+        <v>0.9960338100064636</v>
       </c>
       <c r="D15">
-        <v>1.041697221571708</v>
+        <v>1.019810761955967</v>
       </c>
       <c r="E15">
-        <v>1.036503984813614</v>
+        <v>1.006347711828631</v>
       </c>
       <c r="F15">
-        <v>1.050158283971464</v>
+        <v>1.02217670472238</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04172696141691</v>
+        <v>1.047280119081138</v>
       </c>
       <c r="J15">
-        <v>1.039192694542372</v>
+        <v>1.025420429209249</v>
       </c>
       <c r="K15">
-        <v>1.045227652879534</v>
+        <v>1.034298594928327</v>
       </c>
       <c r="L15">
-        <v>1.040053451545472</v>
+        <v>1.021079636329259</v>
       </c>
       <c r="M15">
-        <v>1.05365814702188</v>
+        <v>1.036622503717155</v>
       </c>
       <c r="N15">
-        <v>1.017009155563506</v>
+        <v>1.012254786199644</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033151933744906</v>
+        <v>0.9987185049292391</v>
       </c>
       <c r="D16">
-        <v>1.042098512915733</v>
+        <v>1.021817589042857</v>
       </c>
       <c r="E16">
-        <v>1.036984660290786</v>
+        <v>1.008668746142009</v>
       </c>
       <c r="F16">
-        <v>1.050643922632529</v>
+        <v>1.024538677916037</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041871121073469</v>
+        <v>1.048227629720888</v>
       </c>
       <c r="J16">
-        <v>1.039488238040344</v>
+        <v>1.026906110863098</v>
       </c>
       <c r="K16">
-        <v>1.045514430810242</v>
+        <v>1.035768230485955</v>
       </c>
       <c r="L16">
-        <v>1.040418667248753</v>
+        <v>1.022847004773131</v>
       </c>
       <c r="M16">
-        <v>1.054030045793537</v>
+        <v>1.038443156573443</v>
       </c>
       <c r="N16">
-        <v>1.017108053718728</v>
+        <v>1.012754311299289</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033475009490369</v>
+        <v>1.000383420713091</v>
       </c>
       <c r="D17">
-        <v>1.042350412029406</v>
+        <v>1.023063464528705</v>
       </c>
       <c r="E17">
-        <v>1.037286499993909</v>
+        <v>1.010110204748752</v>
       </c>
       <c r="F17">
-        <v>1.050948844485201</v>
+        <v>1.026005382562254</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04196123035089</v>
+        <v>1.048812453971419</v>
       </c>
       <c r="J17">
-        <v>1.039673616832081</v>
+        <v>1.027826872598153</v>
       </c>
       <c r="K17">
-        <v>1.045694269405828</v>
+        <v>1.036678841203321</v>
       </c>
       <c r="L17">
-        <v>1.040647862956755</v>
+        <v>1.023943257605931</v>
       </c>
       <c r="M17">
-        <v>1.054263402404925</v>
+        <v>1.039572305986389</v>
       </c>
       <c r="N17">
-        <v>1.017170076412003</v>
+        <v>1.013063887095638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033663530842288</v>
+        <v>1.001347808309132</v>
       </c>
       <c r="D18">
-        <v>1.042497404676129</v>
+        <v>1.023785591234533</v>
       </c>
       <c r="E18">
-        <v>1.037462674376761</v>
+        <v>1.010945887455574</v>
       </c>
       <c r="F18">
-        <v>1.051126805387989</v>
+        <v>1.02685563484799</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042013674602818</v>
+        <v>1.049150195050046</v>
       </c>
       <c r="J18">
-        <v>1.039781741908499</v>
+        <v>1.028359993592168</v>
       </c>
       <c r="K18">
-        <v>1.045799147902898</v>
+        <v>1.037206007637932</v>
       </c>
       <c r="L18">
-        <v>1.040781586479643</v>
+        <v>1.02457831811194</v>
       </c>
       <c r="M18">
-        <v>1.054399541632969</v>
+        <v>1.040226365470128</v>
       </c>
       <c r="N18">
-        <v>1.017206248180061</v>
+        <v>1.013243127531601</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033727824716231</v>
+        <v>1.001675513042511</v>
       </c>
       <c r="D19">
-        <v>1.042547536196081</v>
+        <v>1.024031051370138</v>
       </c>
       <c r="E19">
-        <v>1.037522764971978</v>
+        <v>1.011229980178503</v>
       </c>
       <c r="F19">
-        <v>1.051187503230127</v>
+        <v>1.027144668992317</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042031537212182</v>
+        <v>1.049264788343128</v>
       </c>
       <c r="J19">
-        <v>1.039818609177377</v>
+        <v>1.02854111260386</v>
       </c>
       <c r="K19">
-        <v>1.045834905613235</v>
+        <v>1.037385090339668</v>
       </c>
       <c r="L19">
-        <v>1.040827189066666</v>
+        <v>1.02479412550947</v>
       </c>
       <c r="M19">
-        <v>1.054445965996798</v>
+        <v>1.040448619057411</v>
       </c>
       <c r="N19">
-        <v>1.01721858095241</v>
+        <v>1.013304020743769</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033440338571229</v>
+        <v>1.000205490659381</v>
       </c>
       <c r="D20">
-        <v>1.04232337898932</v>
+        <v>1.022930268868748</v>
       </c>
       <c r="E20">
-        <v>1.037254103397646</v>
+        <v>1.00995607954944</v>
       </c>
       <c r="F20">
-        <v>1.050916118366013</v>
+        <v>1.025848564846462</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041951574363608</v>
+        <v>1.048750058388631</v>
       </c>
       <c r="J20">
-        <v>1.039653727767642</v>
+        <v>1.027728493283871</v>
       </c>
       <c r="K20">
-        <v>1.045674976311071</v>
+        <v>1.036581554416452</v>
       </c>
       <c r="L20">
-        <v>1.040623268531943</v>
+        <v>1.023826093624866</v>
       </c>
       <c r="M20">
-        <v>1.054238362720516</v>
+        <v>1.039451632089434</v>
       </c>
       <c r="N20">
-        <v>1.01716342247978</v>
+        <v>1.013030810680342</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032506598984268</v>
+        <v>0.9953460729031092</v>
       </c>
       <c r="D21">
-        <v>1.041595380406331</v>
+        <v>1.019297107216074</v>
       </c>
       <c r="E21">
-        <v>1.036382030942346</v>
+        <v>1.00575379001437</v>
       </c>
       <c r="F21">
-        <v>1.050035060260693</v>
+        <v>1.021572253551333</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041690258065641</v>
+        <v>1.047036541450032</v>
       </c>
       <c r="J21">
-        <v>1.039117647214078</v>
+        <v>1.025039669853724</v>
       </c>
       <c r="K21">
-        <v>1.0451548184579</v>
+        <v>1.033921885919341</v>
       </c>
       <c r="L21">
-        <v>1.03996074787949</v>
+        <v>1.020626968893005</v>
       </c>
       <c r="M21">
-        <v>1.053563736775113</v>
+        <v>1.036156142732605</v>
       </c>
       <c r="N21">
-        <v>1.016984039020935</v>
+        <v>1.012126763046451</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03192022269129</v>
+        <v>0.9922265988765666</v>
       </c>
       <c r="D22">
-        <v>1.041138249403111</v>
+        <v>1.016969490553869</v>
       </c>
       <c r="E22">
-        <v>1.035834786164171</v>
+        <v>1.003063176261621</v>
       </c>
       <c r="F22">
-        <v>1.049482065153228</v>
+        <v>1.018833686930753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041524928129584</v>
+        <v>1.045927552325012</v>
       </c>
       <c r="J22">
-        <v>1.038780571766743</v>
+        <v>1.023311806877383</v>
       </c>
       <c r="K22">
-        <v>1.044827618784125</v>
+        <v>1.032212111094848</v>
       </c>
       <c r="L22">
-        <v>1.039544543646379</v>
+        <v>1.018574194292667</v>
       </c>
       <c r="M22">
-        <v>1.053139820536489</v>
+        <v>1.034041055387764</v>
       </c>
       <c r="N22">
-        <v>1.016871211553483</v>
+        <v>1.011545797180733</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032231004677034</v>
+        <v>0.9938865509698738</v>
       </c>
       <c r="D23">
-        <v>1.041380526603251</v>
+        <v>1.018207615176997</v>
       </c>
       <c r="E23">
-        <v>1.036124789688914</v>
+        <v>1.004494244088552</v>
       </c>
       <c r="F23">
-        <v>1.049775126551082</v>
+        <v>1.020290309674242</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04161267001247</v>
+        <v>1.046518507605014</v>
       </c>
       <c r="J23">
-        <v>1.03895926333746</v>
+        <v>1.024231403204331</v>
       </c>
       <c r="K23">
-        <v>1.045001087842848</v>
+        <v>1.033122138499286</v>
       </c>
       <c r="L23">
-        <v>1.039765147811104</v>
+        <v>1.01966643113867</v>
       </c>
       <c r="M23">
-        <v>1.053364522514673</v>
+        <v>1.03516648989901</v>
       </c>
       <c r="N23">
-        <v>1.016931027349</v>
+        <v>1.011854997100197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033456004630299</v>
+        <v>1.000285910351649</v>
       </c>
       <c r="D24">
-        <v>1.042335593858519</v>
+        <v>1.022990468359478</v>
       </c>
       <c r="E24">
-        <v>1.037268741665623</v>
+        <v>1.010025737813857</v>
       </c>
       <c r="F24">
-        <v>1.050930905565974</v>
+        <v>1.025919440225243</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041955937843946</v>
+        <v>1.048778262690162</v>
       </c>
       <c r="J24">
-        <v>1.039662714789908</v>
+        <v>1.027772958830527</v>
       </c>
       <c r="K24">
-        <v>1.045683694086882</v>
+        <v>1.036625526401607</v>
       </c>
       <c r="L24">
-        <v>1.04063438157805</v>
+        <v>1.023879048453648</v>
       </c>
       <c r="M24">
-        <v>1.054249676995133</v>
+        <v>1.039506173482121</v>
       </c>
       <c r="N24">
-        <v>1.017166429120906</v>
+        <v>1.013045760592517</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034880553023315</v>
+        <v>1.007449581833908</v>
       </c>
       <c r="D25">
-        <v>1.043446406290431</v>
+        <v>1.028362320725021</v>
       </c>
       <c r="E25">
-        <v>1.038600793081284</v>
+        <v>1.016245972257403</v>
       </c>
       <c r="F25">
-        <v>1.052276240126037</v>
+        <v>1.032246861458655</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042349768207065</v>
+        <v>1.051268644148908</v>
       </c>
       <c r="J25">
-        <v>1.040478899440497</v>
+        <v>1.031728812686233</v>
       </c>
       <c r="K25">
-        <v>1.046475097411886</v>
+        <v>1.040535743271559</v>
       </c>
       <c r="L25">
-        <v>1.041644546205295</v>
+        <v>1.028597218544087</v>
       </c>
       <c r="M25">
-        <v>1.05527787389293</v>
+        <v>1.044364392035714</v>
       </c>
       <c r="N25">
-        <v>1.017439401151539</v>
+        <v>1.014375660505112</v>
       </c>
     </row>
   </sheetData>
